--- a/sriramModel-nelson-melancholic-patientID_55-sims-crh-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_55-sims-crh-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.157159446012123</v>
+        <v>1.129837897627821</v>
       </c>
       <c r="C2">
-        <v>1.094356283403194</v>
+        <v>1.078899052014241</v>
       </c>
       <c r="D2">
-        <v>1.026269921501249</v>
+        <v>1.060372755167789</v>
       </c>
       <c r="E2">
-        <v>1.128459213526034</v>
+        <v>1.085673688322723</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.021016841902544</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.312772588212773</v>
+        <v>1.258130984048656</v>
       </c>
       <c r="C3">
-        <v>1.187134105338999</v>
+        <v>1.157285558527717</v>
       </c>
       <c r="D3">
-        <v>1.052311506272699</v>
+        <v>1.120002390057101</v>
       </c>
       <c r="E3">
-        <v>1.256015940529527</v>
+        <v>1.171062893191998</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.041766719384639</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.467152880730057</v>
+        <v>1.384994281825374</v>
       </c>
       <c r="C4">
-        <v>1.278528143724882</v>
+        <v>1.23517753943631</v>
       </c>
       <c r="D4">
-        <v>1.078135381460475</v>
+        <v>1.178924527759898</v>
       </c>
       <c r="E4">
-        <v>1.382701974803978</v>
+        <v>1.256171828990168</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.062260494067159</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.620524122728783</v>
+        <v>1.510528986743022</v>
       </c>
       <c r="C5">
-        <v>1.368694768866303</v>
+        <v>1.312591818425032</v>
       </c>
       <c r="D5">
-        <v>1.103751241254706</v>
+        <v>1.23717201312546</v>
       </c>
       <c r="E5">
-        <v>1.508547238178099</v>
+        <v>1.341004602244755</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1.082508277144747</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.773051779324011</v>
+        <v>1.634825090488994</v>
       </c>
       <c r="C6">
-        <v>1.457761980791446</v>
+        <v>1.389544071220088</v>
       </c>
       <c r="D6">
-        <v>1.129168005095937</v>
+        <v>1.294775276882846</v>
       </c>
       <c r="E6">
-        <v>1.633579951535839</v>
+        <v>1.425565189068061</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1.102519504137957</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.924862292141215</v>
+        <v>1.757962637662843</v>
       </c>
       <c r="C7">
-        <v>1.54583588368904</v>
+        <v>1.466048959175383</v>
       </c>
       <c r="D7">
-        <v>1.154393846623128</v>
+        <v>1.351762475647346</v>
       </c>
       <c r="E7">
-        <v>1.757826774216602</v>
+        <v>1.50985744550085</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1.122303028938688</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.076054327292761</v>
+        <v>1.880013313943268</v>
       </c>
       <c r="C8">
-        <v>1.633005524926333</v>
+        <v>1.542120195029879</v>
       </c>
       <c r="D8">
-        <v>1.179436278417537</v>
+        <v>1.408159792992708</v>
       </c>
       <c r="E8">
-        <v>1.881312923763499</v>
+        <v>1.593885112126662</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1.141867128299465</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.22670632495334</v>
+        <v>2.001041718446686</v>
       </c>
       <c r="C9">
-        <v>1.719346395533982</v>
+        <v>1.617770600313712</v>
       </c>
       <c r="D9">
-        <v>1.204302234484746</v>
+        <v>1.463991631661348</v>
       </c>
       <c r="E9">
-        <v>2.004062286515012</v>
+        <v>1.677651816579252</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1.16121956491991</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.376881926778437</v>
+        <v>2.121106212891323</v>
       </c>
       <c r="C10">
-        <v>1.80492300010393</v>
+        <v>1.69301213102011</v>
       </c>
       <c r="D10">
-        <v>1.228998116364242</v>
+        <v>1.519280748574632</v>
       </c>
       <c r="E10">
-        <v>2.126097498807013</v>
+        <v>1.761161076003174</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.180367643038793</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.52663339988281</v>
+        <v>2.240259623988476</v>
       </c>
       <c r="C11">
-        <v>1.88979085127939</v>
+        <v>1.767855971254434</v>
       </c>
       <c r="D11">
-        <v>1.253529832037907</v>
+        <v>1.574048408209513</v>
       </c>
       <c r="E11">
-        <v>2.247440016836969</v>
+        <v>1.844416298984038</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1.199318241521035</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.67600410051491</v>
+        <v>2.358549988885202</v>
       </c>
       <c r="C12">
-        <v>1.973998204028445</v>
+        <v>1.842312580750608</v>
       </c>
       <c r="D12">
-        <v>1.27790284121418</v>
+        <v>1.628314528872648</v>
       </c>
       <c r="E12">
-        <v>2.368110183751303</v>
+        <v>1.927420788507585</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1.218077838537307</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.82503047794447</v>
+        <v>2.476021209879665</v>
       </c>
       <c r="C13">
-        <v>2.057587179372356</v>
+        <v>1.916391721875683</v>
       </c>
       <c r="D13">
-        <v>1.302122195838991</v>
+        <v>1.682097797221662</v>
       </c>
       <c r="E13">
-        <v>2.488127391133498</v>
+        <v>2.010177742212171</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1.236652538332049</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.973743487721959</v>
+        <v>2.592713492976998</v>
       </c>
       <c r="C14">
-        <v>2.14059467138317</v>
+        <v>1.990102489179648</v>
       </c>
       <c r="D14">
-        <v>1.326192571609687</v>
+        <v>1.735415769773372</v>
       </c>
       <c r="E14">
-        <v>2.607510113003343</v>
+        <v>2.09269024989932</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1.255048102423424</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.122169581619472</v>
+        <v>2.708663686624084</v>
       </c>
       <c r="C15">
-        <v>2.223053185196065</v>
+        <v>2.063453337684837</v>
       </c>
       <c r="D15">
-        <v>1.350118294364228</v>
+        <v>1.788284968253552</v>
       </c>
       <c r="E15">
-        <v>2.726275921491273</v>
+        <v>2.174961301522109</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1.27326997367771</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.270331524759989</v>
+        <v>2.823905617827446</v>
       </c>
       <c r="C16">
-        <v>2.304991488540591</v>
+        <v>2.136452109962145</v>
       </c>
       <c r="D16">
-        <v>1.373903364042377</v>
+        <v>1.840720947413696</v>
       </c>
       <c r="E16">
-        <v>2.844441544156109</v>
+        <v>2.256993780597224</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1.29132329560435</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.418249045347026</v>
+        <v>2.938470423091415</v>
       </c>
       <c r="C17">
-        <v>2.386435134762599</v>
+        <v>2.209106063710423</v>
       </c>
       <c r="D17">
-        <v>1.397551476442747</v>
+        <v>1.892738364981939</v>
       </c>
       <c r="E17">
-        <v>2.962022936486769</v>
+        <v>2.338790470704991</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1.309212929005458</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.565939352146846</v>
+        <v>3.052386790542499</v>
       </c>
       <c r="C18">
-        <v>2.467406928647915</v>
+        <v>2.28142189896516</v>
       </c>
       <c r="D18">
-        <v>1.421066045280883</v>
+        <v>1.944351076881432</v>
       </c>
       <c r="E18">
-        <v>3.079035335610594</v>
+        <v>2.420354049089749</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1.32694346684623</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.71341750590487</v>
+        <v>3.165681303327811</v>
       </c>
       <c r="C19">
-        <v>2.547927157866741</v>
+        <v>2.353405745221997</v>
       </c>
       <c r="D19">
-        <v>1.444450212256069</v>
+        <v>1.995572186134177</v>
       </c>
       <c r="E19">
-        <v>3.195493294536199</v>
+        <v>2.501687089423397</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1.344519247410204</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.86069670993587</v>
+        <v>3.278378478185346</v>
       </c>
       <c r="C20">
-        <v>2.628013934799254</v>
+        <v>2.425063235199246</v>
       </c>
       <c r="D20">
-        <v>1.467706871301602</v>
+        <v>2.046414101284725</v>
       </c>
       <c r="E20">
-        <v>3.311410714057482</v>
+        <v>2.58279205469201</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1.361944365816838</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.007788563117599</v>
+        <v>3.390500961598481</v>
       </c>
       <c r="C21">
-        <v>2.707683460809054</v>
+        <v>2.496399516187378</v>
       </c>
       <c r="D21">
-        <v>1.490838651342857</v>
+        <v>2.09688858780317</v>
       </c>
       <c r="E21">
-        <v>3.426800879261513</v>
+        <v>2.663671297005477</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1.379222685022964</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.154703278734784</v>
+        <v>3.502069662016151</v>
       </c>
       <c r="C22">
-        <v>2.786950237557011</v>
+        <v>2.567419168982624</v>
       </c>
       <c r="D22">
-        <v>1.513847967783346</v>
+        <v>2.14700679454666</v>
       </c>
       <c r="E22">
-        <v>3.541676494809403</v>
+        <v>2.744327053524194</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1.396357836010468</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.301449859185936</v>
+        <v>3.613103872063913</v>
       </c>
       <c r="C23">
-        <v>2.865827246852444</v>
+        <v>2.638126333947575</v>
       </c>
       <c r="D23">
-        <v>1.536737014093917</v>
+        <v>2.196779302193426</v>
       </c>
       <c r="E23">
-        <v>3.656049712365383</v>
+        <v>2.824761440897238</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1.413353233514456</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.448036228303589</v>
+        <v>3.723621402682193</v>
       </c>
       <c r="C24">
-        <v>2.944326097705931</v>
+        <v>2.708524614895786</v>
       </c>
       <c r="D24">
-        <v>1.559507768301718</v>
+        <v>2.246216160082149</v>
       </c>
       <c r="E24">
-        <v>3.769932161050043</v>
+        <v>2.904976450964179</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1.430212061727984</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.594469333032089</v>
+        <v>3.83363865328449</v>
       </c>
       <c r="C25">
-        <v>3.022457130848682</v>
+        <v>2.778617143429204</v>
       </c>
       <c r="D25">
-        <v>1.582161994479833</v>
+        <v>2.295326921261891</v>
       </c>
       <c r="E25">
-        <v>3.883334961190591</v>
+        <v>2.984973943511223</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1.446937295724126</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.740755226690388</v>
+        <v>3.943170667425711</v>
       </c>
       <c r="C26">
-        <v>3.100229531470279</v>
+        <v>2.848406565747848</v>
       </c>
       <c r="D26">
-        <v>1.60470124459432</v>
+        <v>2.34412067394096</v>
       </c>
       <c r="E26">
-        <v>3.996268760567585</v>
+        <v>3.064755635876403</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1.4635316852139</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.886899138482989</v>
+        <v>4.052231183260631</v>
       </c>
       <c r="C27">
-        <v>3.177651420611452</v>
+        <v>2.917895043840526</v>
       </c>
       <c r="D27">
-        <v>1.627126864375577</v>
+        <v>2.392606065459847</v>
       </c>
       <c r="E27">
-        <v>4.108743732780895</v>
+        <v>3.144323097089314</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1.479997762553019</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.032905527908936</v>
+        <v>4.160832672276244</v>
       </c>
       <c r="C28">
-        <v>3.254729929313646</v>
+        <v>2.987084265855095</v>
       </c>
       <c r="D28">
-        <v>1.649439995708279</v>
+        <v>2.440791325809605</v>
       </c>
       <c r="E28">
-        <v>4.220769607023944</v>
+        <v>3.223677731583857</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1.496337822342252</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.178778123823808</v>
+        <v>4.268986366615044</v>
       </c>
       <c r="C29">
-        <v>3.331471262141994</v>
+        <v>3.055975427960443</v>
       </c>
       <c r="D29">
-        <v>1.671641574139893</v>
+        <v>2.488684289313254</v>
       </c>
       <c r="E29">
-        <v>4.33235567333284</v>
+        <v>3.302820766157194</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1.512553930238762</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.324519947117941</v>
+        <v>4.376702280882031</v>
       </c>
       <c r="C30">
-        <v>3.407880745241633</v>
+        <v>3.124569242410864</v>
       </c>
       <c r="D30">
-        <v>1.693732324979099</v>
+        <v>2.536292410770145</v>
       </c>
       <c r="E30">
-        <v>4.443510790161469</v>
+        <v>3.381753237794392</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1.528647886052793</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.470133322848694</v>
+        <v>4.483989213799008</v>
       </c>
       <c r="C31">
-        <v>3.483962862467352</v>
+        <v>3.192865904032424</v>
       </c>
       <c r="D31">
-        <v>1.715712757839307</v>
+        <v>2.583622783214933</v>
       </c>
       <c r="E31">
-        <v>4.554243401112199</v>
+        <v>3.460475966972799</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1.544621231622772</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.615619877760893</v>
+        <v>4.59085473853447</v>
       </c>
       <c r="C32">
-        <v>3.559721287093965</v>
+        <v>3.260865108097893</v>
       </c>
       <c r="D32">
-        <v>1.737583159627984</v>
+        <v>2.630682150655383</v>
       </c>
       <c r="E32">
-        <v>4.664561525259771</v>
+        <v>3.538989541165869</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1.560475210490633</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.760980540066906</v>
+        <v>4.697305184457315</v>
       </c>
       <c r="C33">
-        <v>3.635158903319203</v>
+        <v>3.328565998688014</v>
       </c>
       <c r="D33">
-        <v>1.759343585875106</v>
+        <v>2.677476919431625</v>
       </c>
       <c r="E33">
-        <v>4.774472765384176</v>
+        <v>3.61729428669399</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1.57621075677301</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.906215498844107</v>
+        <v>4.80334560291934</v>
       </c>
       <c r="C34">
-        <v>3.710277818697212</v>
+        <v>3.395967185337045</v>
       </c>
       <c r="D34">
-        <v>1.780993849302039</v>
+        <v>2.724013164911304</v>
       </c>
       <c r="E34">
-        <v>4.883984301554313</v>
+        <v>3.695390231312945</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1.591828464113922</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6.051324216726522</v>
+        <v>4.908979725161752</v>
       </c>
       <c r="C35">
-        <v>3.785079370115569</v>
+        <v>3.463066686971231</v>
       </c>
       <c r="D35">
-        <v>1.802533505159153</v>
+        <v>2.77029663538548</v>
       </c>
       <c r="E35">
-        <v>4.993102871128429</v>
+        <v>3.773277079281145</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1.607328536083286</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6.196305326960901</v>
+        <v>5.014209908696018</v>
       </c>
       <c r="C36">
-        <v>3.859564118628111</v>
+        <v>3.529861936328496</v>
       </c>
       <c r="D36">
-        <v>1.823961833444671</v>
+        <v>2.816332753443761</v>
       </c>
       <c r="E36">
-        <v>5.101834772685104</v>
+        <v>3.850954156673108</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1.62271077583856</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6.341156607329017</v>
+        <v>5.119037068597112</v>
       </c>
       <c r="C37">
-        <v>3.933731836986421</v>
+        <v>3.596349715449529</v>
       </c>
       <c r="D37">
-        <v>1.845277817653927</v>
+        <v>2.862126613442491</v>
       </c>
       <c r="E37">
-        <v>5.210185820205099</v>
+        <v>3.928420357913713</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1.637974493728182</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6.485874903931322</v>
+        <v>5.223460597548552</v>
       </c>
       <c r="C38">
-        <v>4.007581489477293</v>
+        <v>3.662526146977903</v>
       </c>
       <c r="D38">
-        <v>1.866480119288817</v>
+        <v>2.907682974922251</v>
       </c>
       <c r="E38">
-        <v>5.318161328069663</v>
+        <v>4.005674105340857</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1.653118492029473</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6.630456001972891</v>
+        <v>5.327478269529343</v>
       </c>
       <c r="C39">
-        <v>4.0811112021662</v>
+        <v>3.728386619601834</v>
       </c>
       <c r="D39">
-        <v>1.887567047935164</v>
+        <v>2.953006248847034</v>
       </c>
       <c r="E39">
-        <v>5.425766071956793</v>
+        <v>4.082713247796566</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1.668140961344549</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6.774894566673389</v>
+        <v>5.431086125955249</v>
       </c>
       <c r="C40">
-        <v>4.154318222630723</v>
+        <v>3.793925753556616</v>
       </c>
       <c r="D40">
-        <v>1.908536525446531</v>
+        <v>2.998100479689852</v>
       </c>
       <c r="E40">
-        <v>5.533004214542745</v>
+        <v>4.159534996063479</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1.683039416621025</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6.919183971232555</v>
+        <v>5.534278349169604</v>
       </c>
       <c r="C41">
-        <v>4.227198871686033</v>
+        <v>3.859137330559007</v>
       </c>
       <c r="D41">
-        <v>1.929386042809521</v>
+        <v>3.042969318522491</v>
       </c>
       <c r="E41">
-        <v>5.639879282966703</v>
+        <v>4.236135823342416</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1.697810617037195</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7.063316122297998</v>
+        <v>5.637047115211338</v>
       </c>
       <c r="C42">
-        <v>4.299748478726232</v>
+        <v>3.92401420256331</v>
       </c>
       <c r="D42">
-        <v>1.95011260959341</v>
+        <v>3.087615992265271</v>
       </c>
       <c r="E42">
-        <v>5.746394038316002</v>
+        <v>4.312511316735447</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1.712450406181395</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7.207281343962494</v>
+        <v>5.739382428000114</v>
       </c>
       <c r="C43">
-        <v>4.371961306093029</v>
+        <v>3.988548253017489</v>
       </c>
       <c r="D43">
-        <v>1.970712693652419</v>
+        <v>3.132043253002618</v>
       </c>
       <c r="E43">
-        <v>5.852550400967576</v>
+        <v>4.388656080898529</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1.726953671497946</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7.351068039302529</v>
+        <v>5.841271932540755</v>
       </c>
       <c r="C44">
-        <v>4.443830457848111</v>
+        <v>4.052730207365108</v>
       </c>
       <c r="D44">
-        <v>1.991182149288689</v>
+        <v>3.176253321128005</v>
       </c>
       <c r="E44">
-        <v>5.958349334574624</v>
+        <v>4.46456353148611</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1.741314091476085</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7.494662492570569</v>
+        <v>5.942700695984612</v>
       </c>
       <c r="C45">
-        <v>4.515347770443094</v>
+        <v>4.116549643693479</v>
       </c>
       <c r="D45">
-        <v>2.011516130851205</v>
+        <v>3.220247807756651</v>
       </c>
       <c r="E45">
-        <v>6.063790620447806</v>
+        <v>4.540225675406479</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1.75552406203168</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7.6380485428559</v>
+        <v>6.043650968829078</v>
       </c>
       <c r="C46">
-        <v>4.58650368094882</v>
+        <v>4.179994691548296</v>
       </c>
       <c r="D46">
-        <v>2.03170899120463</v>
+        <v>3.264027626908645</v>
       </c>
       <c r="E46">
-        <v>6.168872774232295</v>
+        <v>4.615632954406349</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1.769574430904918</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7.781207097744392</v>
+        <v>6.144101912242075</v>
       </c>
       <c r="C47">
-        <v>4.657287078192261</v>
+        <v>4.243052068945945</v>
       </c>
       <c r="D47">
-        <v>2.051754157484379</v>
+        <v>3.307592867470833</v>
       </c>
       <c r="E47">
-        <v>6.273592679079319</v>
+        <v>4.690773841608807</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1.783454318138807</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7.92411584553329</v>
+        <v>6.24402929105033</v>
       </c>
       <c r="C48">
-        <v>4.727685113273563</v>
+        <v>4.305706699580569</v>
       </c>
       <c r="D48">
-        <v>2.071643981352437</v>
+        <v>3.350942642572826</v>
       </c>
       <c r="E48">
-        <v>6.377945345875482</v>
+        <v>4.765634559750171</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1.797150788477568</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>8.066748550218986</v>
+        <v>6.343405136223843</v>
       </c>
       <c r="C49">
-        <v>4.797682983743168</v>
+        <v>4.367941573781424</v>
       </c>
       <c r="D49">
-        <v>2.091369557884746</v>
+        <v>3.394074896249871</v>
       </c>
       <c r="E49">
-        <v>6.481923608448518</v>
+        <v>4.840198726459636</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1.810648557909494</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>8.20907436496285</v>
+        <v>6.442197344890485</v>
       </c>
       <c r="C50">
-        <v>4.867263673790039</v>
+        <v>4.429737475452924</v>
       </c>
       <c r="D50">
-        <v>2.110920504644157</v>
+        <v>3.436986177228949</v>
       </c>
       <c r="E50">
-        <v>6.585517530252992</v>
+        <v>4.91444674096577</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1.823929660995232</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>8.351057436141078</v>
+        <v>6.540369255238345</v>
       </c>
       <c r="C51">
-        <v>4.936407647570308</v>
+        <v>4.491072694487966</v>
       </c>
       <c r="D51">
-        <v>2.130284692200051</v>
+        <v>3.479671336179226</v>
       </c>
       <c r="E51">
-        <v>6.688713872064165</v>
+        <v>4.988355228509765</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1.836973031275127</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>8.492655519059216</v>
+        <v>6.637879257708556</v>
       </c>
       <c r="C52">
-        <v>5.005092525182731</v>
+        <v>4.551922978052015</v>
       </c>
       <c r="D52">
-        <v>2.149447992535983</v>
+        <v>3.522123502533268</v>
       </c>
       <c r="E52">
-        <v>6.791495520570207</v>
+        <v>5.06189746440751</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1.849754501736805</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>10.77751319807982</v>
+        <v>8.030988039807172</v>
       </c>
       <c r="C53">
-        <v>6.51681521565504</v>
+        <v>5.361037490171199</v>
       </c>
       <c r="D53">
-        <v>3.169225039206891</v>
+        <v>4.275850184731129</v>
       </c>
       <c r="E53">
-        <v>8.117316091949334</v>
+        <v>5.92328411065006</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>2.494588496357765</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>13.05724210532687</v>
+        <v>9.416047650231784</v>
       </c>
       <c r="C54">
-        <v>8.022424514609616</v>
+        <v>6.16439546808918</v>
       </c>
       <c r="D54">
-        <v>4.185430420505491</v>
+        <v>5.026310761731403</v>
       </c>
       <c r="E54">
-        <v>9.438151283873937</v>
+        <v>6.780104497193918</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>3.134577272841107</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>15.33124813691109</v>
+        <v>10.79283849663503</v>
       </c>
       <c r="C55">
-        <v>9.521917927386959</v>
+        <v>6.961808647696604</v>
       </c>
       <c r="D55">
-        <v>5.198253681607197</v>
+        <v>5.773775142158331</v>
       </c>
       <c r="E55">
-        <v>10.75401947659871</v>
+        <v>7.631986257462239</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>3.769947464380354</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>17.59876733258803</v>
+        <v>12.160930900157</v>
       </c>
       <c r="C56">
-        <v>11.01507919277733</v>
+        <v>7.752990760891038</v>
       </c>
       <c r="D56">
-        <v>6.207605914866885</v>
+        <v>6.518335304077988</v>
       </c>
       <c r="E56">
-        <v>12.06476038590802</v>
+        <v>8.478452316057538</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>4.400578847076959</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>19.8588627254567</v>
+        <v>13.51972383691017</v>
       </c>
       <c r="C57">
-        <v>12.50154844307415</v>
+        <v>8.537561648015718</v>
       </c>
       <c r="D57">
-        <v>7.213251329977846</v>
+        <v>7.259940170740975</v>
       </c>
       <c r="E57">
-        <v>13.37004128689079</v>
+        <v>9.318909527578544</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>5.026143168386342</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>22.11040234156283</v>
+        <v>14.86846124860819</v>
       </c>
       <c r="C58">
-        <v>13.98084099876372</v>
+        <v>9.315045390507345</v>
       </c>
       <c r="D58">
-        <v>8.214839702363113</v>
+        <v>7.998409197872984</v>
       </c>
       <c r="E58">
-        <v>14.66934964960049</v>
+        <v>10.15263352197472</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>5.646154866887738</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>24.35202761491565</v>
+        <v>16.206235659722</v>
       </c>
       <c r="C59">
-        <v>15.45234695520702</v>
+        <v>10.08486347332312</v>
       </c>
       <c r="D59">
-        <v>9.211908446557267</v>
+        <v>8.733433387563879</v>
       </c>
       <c r="E59">
-        <v>15.961977295062</v>
+        <v>10.97875076989464</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>6.259990396337465</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>26.58210858048652</v>
+        <v>17.53198408709529</v>
       </c>
       <c r="C60">
-        <v>16.91531804214881</v>
+        <v>10.84632456388452</v>
       </c>
       <c r="D60">
-        <v>10.20386850765398</v>
+        <v>9.464567769044143</v>
       </c>
       <c r="E60">
-        <v>17.24699511099582</v>
+        <v>11.79621896713143</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>6.866892354744019</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>28.79868944945068</v>
+        <v>18.8444781914437</v>
       </c>
       <c r="C61">
-        <v>18.36884530308912</v>
+        <v>11.59860983690598</v>
       </c>
       <c r="D61">
-        <v>11.18997842946681</v>
+        <v>10.19121657258588</v>
       </c>
       <c r="E61">
-        <v>18.52321984382612</v>
+        <v>12.60380578345253</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>7.465966371763801</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>30.99942342723755</v>
+        <v>20.14230984455931</v>
       </c>
       <c r="C62">
-        <v>19.81182573423258</v>
+        <v>12.34075485639358</v>
       </c>
       <c r="D62">
-        <v>12.1693068288072</v>
+        <v>10.91261282862368</v>
       </c>
       <c r="E62">
-        <v>19.78917504251121</v>
+        <v>13.40006831772879</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>8.056174167392067</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>33.18149301657299</v>
+        <v>21.42387359171791</v>
       </c>
       <c r="C63">
-        <v>21.24291854712407</v>
+        <v>13.07162885241206</v>
       </c>
       <c r="D63">
-        <v>13.14068123748192</v>
+        <v>11.62779307312704</v>
       </c>
       <c r="E63">
-        <v>21.04304497232583</v>
+        <v>14.18333402904536</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>8.636325501885079</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>35.34151577092395</v>
+        <v>22.68734605690661</v>
       </c>
       <c r="C64">
-        <v>22.66048831943087</v>
+        <v>13.78991087844539</v>
       </c>
       <c r="D64">
-        <v>14.10262037897238</v>
+        <v>12.33556825866751</v>
       </c>
       <c r="E64">
-        <v>22.28262378695806</v>
+        <v>14.95168606730891</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>9.205070807080183</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>37.47543686643566</v>
+        <v>23.93066307537811</v>
       </c>
       <c r="C65">
-        <v>24.06253023393274</v>
+        <v>14.49406437501719</v>
       </c>
       <c r="D65">
-        <v>15.05324621172271</v>
+        <v>13.03449261565469</v>
       </c>
       <c r="E65">
-        <v>23.50526352397749</v>
+        <v>15.70295669202705</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>9.76089636372455</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>39.57840842125232</v>
+        <v>25.15149577400958</v>
       </c>
       <c r="C66">
-        <v>25.44657408732893</v>
+        <v>15.18231249150436</v>
       </c>
       <c r="D66">
-        <v>15.99017230229356</v>
+        <v>13.7228330186876</v>
       </c>
       <c r="E66">
-        <v>24.70782480815769</v>
+        <v>16.43473265565871</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>10.30212450344557</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>41.6446616231072</v>
+        <v>26.34722689496877</v>
       </c>
       <c r="C67">
-        <v>26.80956138302994</v>
+        <v>15.8526173777136</v>
       </c>
       <c r="D67">
-        <v>16.91036696927728</v>
+        <v>14.39854263937889</v>
       </c>
       <c r="E67">
-        <v>25.88663739782756</v>
+        <v>17.14437738244949</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>10.82692114831804</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>43.66738089369086</v>
+        <v>27.51492946240564</v>
       </c>
       <c r="C68">
-        <v>28.14769003443729</v>
+        <v>16.50266892694474</v>
       </c>
       <c r="D68">
-        <v>17.80999477696182</v>
+        <v>15.05924422082442</v>
       </c>
       <c r="E68">
-        <v>27.03747972258531</v>
+        <v>17.82907458844407</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>11.33331451427948</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>45.63859770804622</v>
+        <v>28.65135057429814</v>
       </c>
       <c r="C69">
-        <v>29.45622334860039</v>
+        <v>17.1298908855285</v>
       </c>
       <c r="D69">
-        <v>18.68425039768833</v>
+        <v>15.70222971140188</v>
       </c>
       <c r="E69">
-        <v>28.15559003891801</v>
+        <v>18.48589686335615</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>11.81922561580691</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>47.54912900565934</v>
+        <v>29.75290409138776</v>
       </c>
       <c r="C70">
-        <v>30.72926509497249</v>
+        <v>17.73147381900376</v>
       </c>
       <c r="D70">
-        <v>19.52721717751771</v>
+        <v>16.32448452400564</v>
       </c>
       <c r="E70">
-        <v>29.23572136956905</v>
+        <v>19.11190083634151</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>12.28251451776171</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>49.38859924526616</v>
+        <v>30.81568254303841</v>
       </c>
       <c r="C71">
-        <v>31.95951559218543</v>
+        <v>18.30444579455326</v>
       </c>
       <c r="D71">
-        <v>20.33180877862877</v>
+        <v>16.92274448803073</v>
       </c>
       <c r="E71">
-        <v>30.27225585793497</v>
+        <v>19.70424725558707</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>12.7210436297532</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>51.14559009158476</v>
+        <v>31.83548796490078</v>
       </c>
       <c r="C72">
-        <v>33.13805141326765</v>
+        <v>18.84578811638718</v>
       </c>
       <c r="D72">
-        <v>21.08987988224557</v>
+        <v>17.49359232285327</v>
       </c>
       <c r="E72">
-        <v>31.25938615589673</v>
+        <v>20.2603390954123</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>13.1327568783855</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>52.80797502944657</v>
+        <v>32.80789423428514</v>
       </c>
       <c r="C73">
-        <v>34.25420982108798</v>
+        <v>19.35260065366231</v>
       </c>
       <c r="D73">
-        <v>21.79260455861843</v>
+        <v>18.03359627620116</v>
       </c>
       <c r="E73">
-        <v>32.1913676749572</v>
+        <v>20.77796690103184</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>13.51577186422311</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>54.36346059969221</v>
+        <v>33.72835227719135</v>
       </c>
       <c r="C74">
-        <v>35.29573870395468</v>
+        <v>19.82230442932889</v>
       </c>
       <c r="D74">
-        <v>22.43119009298096</v>
+        <v>18.53948688200236</v>
       </c>
       <c r="E74">
-        <v>33.0628311895006</v>
+        <v>21.25544618649472</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>13.8684792395411</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>55.80036303948722</v>
+        <v>34.59234093972105</v>
       </c>
       <c r="C75">
-        <v>36.2493882034515</v>
+        <v>20.2528615861387</v>
       </c>
       <c r="D75">
-        <v>22.99789602327241</v>
+        <v>19.008359009576</v>
       </c>
       <c r="E75">
-        <v>33.86912909014862</v>
+        <v>21.69172981925528</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>14.18964034964345</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>57.10855805864527</v>
+        <v>35.39557085735026</v>
       </c>
       <c r="C76">
-        <v>37.10213982458144</v>
+        <v>20.64297526225525</v>
       </c>
       <c r="D76">
-        <v>23.48717636718551</v>
+        <v>19.43787692946252</v>
       </c>
       <c r="E76">
-        <v>34.60667699112707</v>
+        <v>22.08648073428779</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>14.47847223106262</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>58.28049228002932</v>
+        <v>36.1342337797041</v>
       </c>
       <c r="C77">
-        <v>37.84306335488227</v>
+        <v>20.9922315011358</v>
       </c>
       <c r="D77">
-        <v>23.89663396240875</v>
+        <v>19.82645454926205</v>
       </c>
       <c r="E77">
-        <v>35.27324087044492</v>
+        <v>22.4400939715174</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>14.73470942660119</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>59.31207572923222</v>
+        <v>36.80528536893181</v>
       </c>
       <c r="C78">
-        <v>38.46544490171039</v>
+        <v>21.30114869665552</v>
       </c>
       <c r="D78">
-        <v>24.22746041321601</v>
+        <v>20.17338251006815</v>
       </c>
       <c r="E78">
-        <v>35.86812322314939</v>
+        <v>22.75366561480477</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>14.958633008289</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>60.20325878360782</v>
+        <v>37.40672855999408</v>
       </c>
       <c r="C79">
-        <v>38.96846285082587</v>
+        <v>21.57113350074214</v>
       </c>
       <c r="D79">
-        <v>24.48421558347235</v>
+        <v>20.478880464544</v>
       </c>
       <c r="E79">
-        <v>36.39221186007342</v>
+        <v>23.0289139819073</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>15.15106224378255</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>60.95814397074614</v>
+        <v>37.93785878965629</v>
       </c>
       <c r="C80">
-        <v>39.35765947718539</v>
+        <v>21.80434425656268</v>
       </c>
       <c r="D80">
-        <v>24.67403441459354</v>
+        <v>20.74406605253323</v>
       </c>
       <c r="E80">
-        <v>36.84789592591378</v>
+        <v>23.26806441637425</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>15.31330942767019</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>61.58459227980028</v>
+        <v>38.39942430537652</v>
       </c>
       <c r="C81">
-        <v>39.64394804292318</v>
+        <v>22.00349875396104</v>
       </c>
       <c r="D81">
-        <v>24.80554542579737</v>
+        <v>20.97084797837852</v>
       </c>
       <c r="E81">
-        <v>37.23885069805429</v>
+        <v>23.47371355261156</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>15.4471029780827</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>62.09340949632999</v>
+        <v>38.79365784661395</v>
       </c>
       <c r="C82">
-        <v>39.84159094079124</v>
+        <v>22.171660739328</v>
       </c>
       <c r="D82">
-        <v>24.8878145415407</v>
+        <v>21.16176289893597</v>
       </c>
       <c r="E82">
-        <v>37.56973993316647</v>
+        <v>23.64868935573142</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>15.55448932001509</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>62.49729573950212</v>
+        <v>39.12417476941972</v>
       </c>
       <c r="C83">
-        <v>39.96594425688671</v>
+        <v>22.31203834587927</v>
       </c>
       <c r="D83">
-        <v>24.92952744410938</v>
+        <v>21.31978327939042</v>
       </c>
       <c r="E83">
-        <v>37.84587926350244</v>
+        <v>23.79592002285408</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>15.6377251279139</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>62.80976719979768</v>
+        <v>39.39573191218138</v>
       </c>
       <c r="C84">
-        <v>40.03165368188795</v>
+        <v>22.42781654301402</v>
       </c>
       <c r="D84">
-        <v>24.9384821514075</v>
+        <v>21.44812321925356</v>
       </c>
       <c r="E84">
-        <v>38.07290692829502</v>
+        <v>23.91832178617449</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>15.69917116492551</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>63.0442179391183</v>
+        <v>39.61388917148465</v>
       </c>
       <c r="C85">
-        <v>40.0515776683209</v>
+        <v>22.52203126444494</v>
       </c>
       <c r="D85">
-        <v>24.92135908670663</v>
+        <v>21.55006389594579</v>
       </c>
       <c r="E85">
-        <v>38.25649570248424</v>
+        <v>24.01871013889642</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>15.74119499953246</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>62.96258383012049</v>
+        <v>39.56169096126742</v>
       </c>
       <c r="C86">
-        <v>39.9376124327587</v>
+        <v>22.48653654722614</v>
       </c>
       <c r="D86">
-        <v>24.81701314079814</v>
+        <v>21.50852971667046</v>
       </c>
       <c r="E86">
-        <v>38.21141294036445</v>
+        <v>23.98989274983306</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>15.67565422151932</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>62.87555936174517</v>
+        <v>39.50540512243762</v>
       </c>
       <c r="C87">
-        <v>39.82107216509798</v>
+        <v>22.44946318239057</v>
       </c>
       <c r="D87">
-        <v>24.71112847496218</v>
+        <v>21.46498644766374</v>
       </c>
       <c r="E87">
-        <v>38.16307635860959</v>
+        <v>23.95942185505878</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>15.60866746678073</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>62.78413245285555</v>
+        <v>39.44561731112867</v>
       </c>
       <c r="C88">
-        <v>39.70261570278007</v>
+        <v>22.41103737390212</v>
       </c>
       <c r="D88">
-        <v>24.60406184833656</v>
+        <v>21.41971991605969</v>
       </c>
       <c r="E88">
-        <v>38.11195563137769</v>
+        <v>23.92752067216097</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>15.54043622950744</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>62.68914318821925</v>
+        <v>39.38287228034</v>
       </c>
       <c r="C89">
-        <v>39.5827436761507</v>
+        <v>22.37145628548365</v>
       </c>
       <c r="D89">
-        <v>24.49609270386391</v>
+        <v>21.3729808496214</v>
       </c>
       <c r="E89">
-        <v>38.05846847763416</v>
+        <v>23.89438765379928</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>15.47114210669716</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>62.59129066948058</v>
+        <v>39.31765921767212</v>
       </c>
       <c r="C90">
-        <v>39.46183347550744</v>
+        <v>22.33089077795679</v>
       </c>
       <c r="D90">
-        <v>24.38743848703638</v>
+        <v>21.32499102330329</v>
       </c>
       <c r="E90">
-        <v>38.0029819946962</v>
+        <v>23.86019846697867</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>15.40094701906327</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>62.49114916934536</v>
+        <v>39.25040628872183</v>
       </c>
       <c r="C91">
-        <v>39.34016660597355</v>
+        <v>22.28948784153687</v>
       </c>
       <c r="D91">
-        <v>24.27826816579524</v>
+        <v>21.2759438851026</v>
       </c>
       <c r="E91">
-        <v>37.94581451348926</v>
+        <v>23.82510710959565</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>15.3299933724417</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>62.38918417389851</v>
+        <v>39.18148013238896</v>
       </c>
       <c r="C92">
-        <v>39.21795368091937</v>
+        <v>22.24737324772195</v>
       </c>
       <c r="D92">
-        <v>24.16871229200706</v>
+        <v>21.22600633047519</v>
       </c>
       <c r="E92">
-        <v>37.88723924886773</v>
+        <v>23.78924763485774</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>15.25840506361023</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>62.28577019565834</v>
+        <v>39.11118978950188</v>
       </c>
       <c r="C93">
-        <v>39.09535151296451</v>
+        <v>22.20465408818163</v>
       </c>
       <c r="D93">
-        <v>24.05887194093335</v>
+        <v>21.1753211545408</v>
       </c>
       <c r="E93">
-        <v>37.82748876405427</v>
+        <v>23.75273609007682</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>15.18628893629705</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>62.18120709546574</v>
+        <v>39.03979270473663</v>
       </c>
       <c r="C94">
-        <v>38.97247730789221</v>
+        <v>22.1614215648437</v>
       </c>
       <c r="D94">
-        <v>23.94882542890605</v>
+        <v>21.12400969749326</v>
       </c>
       <c r="E94">
-        <v>37.76675973023166</v>
+        <v>23.71567244587993</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>15.11373644523632</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>62.07573335472039</v>
+        <v>38.96750113841493</v>
       </c>
       <c r="C95">
-        <v>38.84941894175681</v>
+        <v>22.11775325061946</v>
       </c>
       <c r="D95">
-        <v>23.83863330619463</v>
+        <v>21.07217453048857</v>
       </c>
       <c r="E95">
-        <v>37.70521764056905</v>
+        <v>23.67814250433074</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>15.04082541036811</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>61.96953829392155</v>
+        <v>38.89448882476461</v>
       </c>
       <c r="C96">
-        <v>38.72624236818868</v>
+        <v>22.07371501102689</v>
       </c>
       <c r="D96">
-        <v>23.72834263921219</v>
+        <v>21.01990203371271</v>
       </c>
       <c r="E96">
-        <v>37.64300127733799</v>
+        <v>23.64021972221376</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>14.96762173732009</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>61.86277237579903</v>
+        <v>38.820897340749</v>
       </c>
       <c r="C97">
-        <v>38.60299737684551</v>
+        <v>22.0293628176945</v>
       </c>
       <c r="D97">
-        <v>23.61798998863344</v>
+        <v>20.96726477035315</v>
       </c>
       <c r="E97">
-        <v>37.58022671914998</v>
+        <v>23.60196687694141</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>14.89418104155</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>61.75555468110429</v>
+        <v>38.74684176178506</v>
       </c>
       <c r="C98">
-        <v>38.4797215986301</v>
+        <v>21.98474428747368</v>
       </c>
       <c r="D98">
-        <v>23.50760394974866</v>
+        <v>20.91432358226646</v>
       </c>
       <c r="E98">
-        <v>37.51699085940199</v>
+        <v>23.56343755141844</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>14.82055012687116</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>61.64797945976219</v>
+        <v>38.67241543343162</v>
       </c>
       <c r="C99">
-        <v>38.35644371829687</v>
+        <v>21.93990020774639</v>
       </c>
       <c r="D99">
-        <v>23.39720695559091</v>
+        <v>20.86112941419782</v>
       </c>
       <c r="E99">
-        <v>37.45337447492177</v>
+        <v>23.52467743646992</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>14.74676829689089</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>61.54012164452949</v>
+        <v>38.5976939664348</v>
       </c>
       <c r="C100">
-        <v>38.23318572995355</v>
+        <v>21.8948652680701</v>
       </c>
       <c r="D100">
-        <v>23.28681653596666</v>
+        <v>20.807724897305</v>
       </c>
       <c r="E100">
-        <v>37.38944488747052</v>
+        <v>23.48572546986231</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>14.67286850595483</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>61.43204079319113</v>
+        <v>38.5227385975088</v>
       </c>
       <c r="C101">
-        <v>38.10996446136863</v>
+        <v>21.84966910915512</v>
       </c>
       <c r="D101">
-        <v>23.17644648393232</v>
+        <v>20.75414570736998</v>
       </c>
       <c r="E101">
-        <v>37.32525819567714</v>
+        <v>23.44661483287019</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>14.59887835991952</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>61.32378424191651</v>
+        <v>38.44759897963382</v>
       </c>
       <c r="C102">
-        <v>37.98679287844293</v>
+        <v>21.80433719440504</v>
       </c>
       <c r="D102">
-        <v>23.06610771426278</v>
+        <v>20.70042171128754</v>
       </c>
       <c r="E102">
-        <v>37.26086115591595</v>
+        <v>23.40737381723656</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>14.52482097519519</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>61.21538976669365</v>
+        <v>38.37231544181191</v>
       </c>
       <c r="C103">
-        <v>37.86368106547143</v>
+        <v>21.75889145356112</v>
       </c>
       <c r="D103">
-        <v>22.95580901163943</v>
+        <v>20.64657792777043</v>
       </c>
       <c r="E103">
-        <v>37.19629275982208</v>
+        <v>23.36802655419491</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>14.45071570731349</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>61.10688756845823</v>
+        <v>38.29692079424142</v>
       </c>
       <c r="C104">
-        <v>37.74063691929598</v>
+        <v>21.71335077024331</v>
       </c>
       <c r="D104">
-        <v>22.84555727020377</v>
+        <v>20.59263533146038</v>
       </c>
       <c r="E104">
-        <v>37.13158554971382</v>
+        <v>23.3285936420173</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>14.3765787674959</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>60.99830183568479</v>
+        <v>38.22144177700178</v>
       </c>
       <c r="C105">
-        <v>37.61766662298293</v>
+        <v>21.66773144633312</v>
       </c>
       <c r="D105">
-        <v>22.73535794645665</v>
+        <v>20.53861152912011</v>
       </c>
       <c r="E105">
-        <v>37.06676671802882</v>
+        <v>23.28909267681228</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>14.30242374032727</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>60.88965199358597</v>
+        <v>38.145900232048</v>
       </c>
       <c r="C106">
-        <v>37.49477500079541</v>
+        <v>21.62204759386514</v>
       </c>
       <c r="D106">
-        <v>22.62521542181648</v>
+        <v>20.48452132008783</v>
       </c>
       <c r="E106">
-        <v>37.00185901361903</v>
+        <v>23.24953870515632</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>14.22826201773217</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>60.78095369074942</v>
+        <v>38.07031404898385</v>
       </c>
       <c r="C107">
-        <v>37.37196582706779</v>
+        <v>21.57631147580765</v>
       </c>
       <c r="D107">
-        <v>22.51513325335936</v>
+        <v>20.43037716149071</v>
       </c>
       <c r="E107">
-        <v>36.93688149135144</v>
+        <v>23.20994460865026</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>14.15410316302926</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>60.67221954909012</v>
+        <v>37.99469792152266</v>
       </c>
       <c r="C108">
-        <v>37.24924208740504</v>
+        <v>21.53053384322683</v>
       </c>
       <c r="D108">
-        <v>22.40511435848667</v>
+        <v>20.37618955588559</v>
       </c>
       <c r="E108">
-        <v>36.87185013608878</v>
+        <v>23.17032142927933</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>14.07995521394296</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>60.56345979254809</v>
+        <v>37.91906395076418</v>
       </c>
       <c r="C109">
-        <v>37.12660617243648</v>
+        <v>21.48472406238886</v>
       </c>
       <c r="D109">
-        <v>22.29516105115316</v>
+        <v>20.32196737304857</v>
       </c>
       <c r="E109">
-        <v>36.8067783776478</v>
+        <v>23.13067864425537</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>14.00582493498936</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>60.45468273988205</v>
+        <v>37.84342212920644</v>
       </c>
       <c r="C110">
-        <v>37.00405999478044</v>
+        <v>21.43889028466423</v>
       </c>
       <c r="D110">
-        <v>22.1852751618739</v>
+        <v>20.26771811749407</v>
       </c>
       <c r="E110">
-        <v>36.74167751791828</v>
+        <v>23.09102439839007</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>13.93171802762472</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>60.34589516694179</v>
+        <v>37.76778073160354</v>
       </c>
       <c r="C111">
-        <v>36.88160507601906</v>
+        <v>21.39303965184479</v>
       </c>
       <c r="D111">
-        <v>22.07545819031334</v>
+        <v>20.2134481506767</v>
       </c>
       <c r="E111">
-        <v>36.6765570850599</v>
+        <v>23.05136570089354</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>13.85763930518658</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>60.2371025935003</v>
+        <v>37.69214663074119</v>
       </c>
       <c r="C112">
-        <v>36.7592426278472</v>
+        <v>21.34717845960069</v>
       </c>
       <c r="D112">
-        <v>21.96571138343568</v>
+        <v>20.15916287563315</v>
       </c>
       <c r="E112">
-        <v>36.61142512444744</v>
+        <v>23.01170859234173</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>13.78359283841267</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>60.12830952990551</v>
+        <v>37.6165255518728</v>
       </c>
       <c r="C113">
-        <v>36.63697362149847</v>
+        <v>21.30131223550994</v>
       </c>
       <c r="D113">
-        <v>21.85603576182697</v>
+        <v>20.10486689060589</v>
       </c>
       <c r="E113">
-        <v>36.54628844192945</v>
+        <v>22.97205828575132</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>13.70958207647464</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>60.01951968087785</v>
+        <v>37.54092227786596</v>
       </c>
       <c r="C114">
-        <v>36.51479883958241</v>
+        <v>21.25544599213655</v>
       </c>
       <c r="D114">
-        <v>21.7464321485427</v>
+        <v>20.05056411700981</v>
       </c>
       <c r="E114">
-        <v>36.48115280497333</v>
+        <v>22.93241928765924</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>13.63560994771555</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>59.91073610118787</v>
+        <v>37.46534081551658</v>
       </c>
       <c r="C115">
-        <v>36.39271891310893</v>
+        <v>21.2095841000502</v>
       </c>
       <c r="D115">
-        <v>21.63690121235005</v>
+        <v>19.99625790684705</v>
       </c>
       <c r="E115">
-        <v>36.41602310381236</v>
+        <v>22.89279549840707</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>13.56167894356978</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>59.80196131337239</v>
+        <v>37.38978453103104</v>
       </c>
       <c r="C116">
-        <v>36.2707343492723</v>
+        <v>21.16373042220509</v>
       </c>
       <c r="D116">
-        <v>21.52744350258362</v>
+        <v>19.94195113119431</v>
       </c>
       <c r="E116">
-        <v>36.35090350156352</v>
+        <v>22.85319029869801</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>13.48779118852086</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>59.69319740286885</v>
+        <v>37.31425626055375</v>
       </c>
       <c r="C117">
-        <v>36.14884555410715</v>
+        <v>21.11788837914607</v>
       </c>
       <c r="D117">
-        <v>21.4180594713261</v>
+        <v>19.88764625498563</v>
       </c>
       <c r="E117">
-        <v>36.28579755390878</v>
+        <v>22.8136066232371</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>13.41394849846104</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>59.58444609814871</v>
+        <v>37.23875840035198</v>
       </c>
       <c r="C118">
-        <v>36.02705285011091</v>
+        <v>21.07206102816911</v>
       </c>
       <c r="D118">
-        <v>21.30874948877524</v>
+        <v>19.83334539825437</v>
       </c>
       <c r="E118">
-        <v>36.22070829603879</v>
+        <v>22.77404702325406</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>13.34015242942567</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>59.47570882930647</v>
+        <v>37.16329298056296</v>
       </c>
       <c r="C119">
-        <v>35.90535649754987</v>
+        <v>21.02625112341338</v>
       </c>
       <c r="D119">
-        <v>21.19951387675045</v>
+        <v>19.77905038963408</v>
       </c>
       <c r="E119">
-        <v>36.15563832359432</v>
+        <v>22.73451371976443</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>13.26640431582553</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>59.366986799038</v>
+        <v>37.08786172574249</v>
       </c>
       <c r="C120">
-        <v>35.78375670188365</v>
+        <v>20.9804611426949</v>
       </c>
       <c r="D120">
-        <v>21.09035287860248</v>
+        <v>19.72476280770571</v>
       </c>
       <c r="E120">
-        <v>36.09058985970291</v>
+        <v>22.69500864900293</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>13.19270530974067</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>59.25828100978146</v>
+        <v>37.01246609987868</v>
       </c>
       <c r="C121">
-        <v>35.66225362755778</v>
+        <v>20.93469329930001</v>
       </c>
       <c r="D121">
-        <v>20.98126672262006</v>
+        <v>19.67048403072401</v>
       </c>
       <c r="E121">
-        <v>36.0255648111004</v>
+        <v>22.65553350124537</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>13.11905640722418</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>59.14959230237818</v>
+        <v>36.93710735873755</v>
       </c>
       <c r="C122">
-        <v>35.54084740687443</v>
+        <v>20.88894957695862</v>
       </c>
       <c r="D122">
-        <v>20.87225557081278</v>
+        <v>19.61621525411904</v>
       </c>
       <c r="E122">
-        <v>35.96056481713983</v>
+        <v>22.6160897540327</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>13.04545847012376</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>59.04092140301756</v>
+        <v>36.8617865767411</v>
       </c>
       <c r="C123">
-        <v>35.41953813437664</v>
+        <v>20.84323176244231</v>
       </c>
       <c r="D123">
-        <v>20.76331956429331</v>
+        <v>19.56195751768178</v>
       </c>
       <c r="E123">
-        <v>35.89559129372724</v>
+        <v>22.5766787004095</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>12.97191225647173</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>58.93226889756247</v>
+        <v>36.78650467336676</v>
       </c>
       <c r="C124">
-        <v>35.29832588827242</v>
+        <v>20.79754147017711</v>
       </c>
       <c r="D124">
-        <v>20.65445881230298</v>
+        <v>19.5077117319819</v>
       </c>
       <c r="E124">
-        <v>35.83064546498115</v>
+        <v>22.53730147086851</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>12.89841842046631</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>58.82363529587351</v>
+        <v>36.71126245516192</v>
       </c>
       <c r="C125">
-        <v>35.17721071844369</v>
+        <v>20.75188015076674</v>
       </c>
       <c r="D125">
-        <v>20.54567340539242</v>
+        <v>19.45347869358024</v>
       </c>
       <c r="E125">
-        <v>35.7657283925417</v>
+        <v>22.49795906116941</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>12.82497753605799</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>58.71502101623928</v>
+        <v>36.63606060245343</v>
       </c>
       <c r="C126">
-        <v>35.05619266107115</v>
+        <v>20.70624914314512</v>
       </c>
       <c r="D126">
-        <v>20.43696341663242</v>
+        <v>19.39925910259663</v>
       </c>
       <c r="E126">
-        <v>35.70084099685777</v>
+        <v>22.4586523440514</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>12.75159010900239</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>58.6064264149957</v>
+        <v>36.56089970754297</v>
       </c>
       <c r="C127">
-        <v>34.93527173785253</v>
+        <v>20.66064961723909</v>
       </c>
       <c r="D127">
-        <v>20.32832890752709</v>
+        <v>19.34505357733822</v>
       </c>
       <c r="E127">
-        <v>35.63598407718577</v>
+        <v>22.41938208908937</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>12.6782565858117</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>58.49785179679603</v>
+        <v>36.48578028302499</v>
       </c>
       <c r="C128">
-        <v>34.81444795875768</v>
+        <v>20.61508270654347</v>
       </c>
       <c r="D128">
-        <v>20.21976992534027</v>
+        <v>19.29086266758396</v>
       </c>
       <c r="E128">
-        <v>35.57115833037212</v>
+        <v>22.38014897818052</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>12.60497736352832</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>58.38929742176351</v>
+        <v>36.41070277236804</v>
       </c>
       <c r="C129">
-        <v>34.69372132606697</v>
+        <v>20.56954940592214</v>
       </c>
       <c r="D129">
-        <v>20.11128651099484</v>
+        <v>19.2366868615983</v>
       </c>
       <c r="E129">
-        <v>35.50636436135699</v>
+        <v>22.34095360434975</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>12.5317527974129</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>58.28076351048235</v>
+        <v>36.33566756248639</v>
       </c>
       <c r="C130">
-        <v>34.57309183264702</v>
+        <v>20.52405062696347</v>
       </c>
       <c r="D130">
-        <v>20.00287869249028</v>
+        <v>19.18252659452987</v>
       </c>
       <c r="E130">
-        <v>35.44160270848452</v>
+        <v>22.30179649802956</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>12.45858320726231</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>58.17225025692311</v>
+        <v>36.26067499408881</v>
       </c>
       <c r="C131">
-        <v>34.4525594655443</v>
+        <v>20.47858718736028</v>
       </c>
       <c r="D131">
-        <v>19.89454649223889</v>
+        <v>19.12838225636914</v>
       </c>
       <c r="E131">
-        <v>35.37687383118094</v>
+        <v>22.26267812089252</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>12.38546888063976</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>58.06375782180622</v>
+        <v>36.18572536345202</v>
       </c>
       <c r="C132">
-        <v>34.33212420558687</v>
+        <v>20.43315984531196</v>
       </c>
       <c r="D132">
-        <v>19.78628992507885</v>
+        <v>19.07425419789604</v>
       </c>
       <c r="E132">
-        <v>35.31217815638114</v>
+        <v>22.2235988828599</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>12.31241007882781</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>57.9552863452906</v>
+        <v>36.11081893139459</v>
       </c>
       <c r="C133">
-        <v>34.21178602838082</v>
+        <v>20.38776928485522</v>
       </c>
       <c r="D133">
-        <v>19.67810900139079</v>
+        <v>19.020142735394</v>
       </c>
       <c r="E133">
-        <v>35.24751603734352</v>
+        <v>22.1845591471042</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>12.23940704086291</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>57.84683594619845</v>
+        <v>36.03595592743736</v>
       </c>
       <c r="C134">
-        <v>34.09154490574353</v>
+        <v>20.34241612678431</v>
       </c>
       <c r="D134">
-        <v>19.57000372729966</v>
+        <v>18.96604815431209</v>
       </c>
       <c r="E134">
-        <v>35.18288781170247</v>
+        <v>22.14555923374678</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>12.1664599860043</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>57.73840672676108</v>
+        <v>35.96113655240677</v>
       </c>
       <c r="C135">
-        <v>33.9714008058362</v>
+        <v>20.29710096492411</v>
       </c>
       <c r="D135">
-        <v>19.46197410573866</v>
+        <v>18.91197071885532</v>
       </c>
       <c r="E135">
-        <v>35.11829375682575</v>
+        <v>22.10659942874973</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>12.09356911593118</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>57.62999877554206</v>
+        <v>35.88636098407972</v>
       </c>
       <c r="C136">
-        <v>33.85135369405815</v>
+        <v>20.25182431419898</v>
       </c>
       <c r="D136">
-        <v>19.35402013688878</v>
+        <v>18.85791066419576</v>
       </c>
       <c r="E136">
-        <v>35.05373413525341</v>
+        <v>22.06767998419042</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>12.02073462198581</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>57.52161216919357</v>
+        <v>35.81162937952124</v>
       </c>
       <c r="C137">
-        <v>33.73140353361515</v>
+        <v>20.20658667570866</v>
       </c>
       <c r="D137">
-        <v>19.24614181854013</v>
+        <v>18.80386821722242</v>
       </c>
       <c r="E137">
-        <v>34.98920916961763</v>
+        <v>22.02880112347343</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>11.94795667808406</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>57.41324697355132</v>
+        <v>35.73694187676512</v>
       </c>
       <c r="C138">
-        <v>33.61155028541924</v>
+        <v>20.16138849920787</v>
       </c>
       <c r="D138">
-        <v>19.13833914608574</v>
+        <v>18.7498435763309</v>
       </c>
       <c r="E138">
-        <v>34.92471906541267</v>
+        <v>21.98996304566687</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>11.87523545543229</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>57.30490324668889</v>
+        <v>35.66229860278548</v>
       </c>
       <c r="C139">
-        <v>33.49179390905755</v>
+        <v>20.11623020083464</v>
       </c>
       <c r="D139">
-        <v>19.03061211346771</v>
+        <v>18.69583693655581</v>
       </c>
       <c r="E139">
-        <v>34.86026400401165</v>
+        <v>21.95116592573635</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>11.80257111297632</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>57.19658103786241</v>
+        <v>35.58769966295011</v>
       </c>
       <c r="C140">
-        <v>33.37213436228299</v>
+        <v>20.07111216944172</v>
       </c>
       <c r="D140">
-        <v>18.92296071295826</v>
+        <v>18.64184847191691</v>
       </c>
       <c r="E140">
-        <v>34.79584415167312</v>
+        <v>21.91240991971593</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>11.72996380216992</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>57.08828039013127</v>
+        <v>35.51314516211961</v>
       </c>
       <c r="C141">
-        <v>33.25257160179444</v>
+        <v>20.02603476568801</v>
       </c>
       <c r="D141">
-        <v>18.81538493581478</v>
+        <v>18.58787834907802</v>
       </c>
       <c r="E141">
-        <v>34.7314596573593</v>
+        <v>21.8736951655224</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>11.65741367292403</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>56.98000134072735</v>
+        <v>35.43863518727267</v>
       </c>
       <c r="C142">
-        <v>33.13310558316199</v>
+        <v>19.98099831342032</v>
       </c>
       <c r="D142">
-        <v>18.7078847724816</v>
+        <v>18.53392672332498</v>
       </c>
       <c r="E142">
-        <v>34.66711065945947</v>
+        <v>21.83502178356159</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>11.58492086338877</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>56.87174392187708</v>
+        <v>35.36416981784155</v>
       </c>
       <c r="C143">
-        <v>33.0137362611063</v>
+        <v>19.9360031237761</v>
       </c>
       <c r="D143">
-        <v>18.60046021271974</v>
+        <v>18.47999374114971</v>
       </c>
       <c r="E143">
-        <v>34.60279728154789</v>
+        <v>21.79638988326363</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>11.51248551394269</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>56.76350816172448</v>
+        <v>35.28974912959576</v>
       </c>
       <c r="C144">
-        <v>32.89446358968728</v>
+        <v>19.89104947393441</v>
       </c>
       <c r="D144">
-        <v>18.49311124592366</v>
+        <v>18.4260795421555</v>
       </c>
       <c r="E144">
-        <v>34.53851963983414</v>
+        <v>21.75779956114634</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>11.44010775675131</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>56.65529408478081</v>
+        <v>35.21537318298258</v>
       </c>
       <c r="C145">
-        <v>32.77528752236925</v>
+        <v>19.84613762657065</v>
       </c>
       <c r="D145">
-        <v>18.38583786104847</v>
+        <v>18.3721842592598</v>
       </c>
       <c r="E145">
-        <v>34.47427783848316</v>
+        <v>21.7192508980595</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>11.36778772428501</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>56.54710171224725</v>
+        <v>35.14104203996433</v>
       </c>
       <c r="C146">
-        <v>32.65620801217756</v>
+        <v>19.80126782277314</v>
       </c>
       <c r="D146">
-        <v>18.27864004683018</v>
+        <v>18.31830802018407</v>
       </c>
       <c r="E146">
-        <v>34.41007197556933</v>
+        <v>21.68074397507275</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>11.29552554569198</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>56.43893106279451</v>
+        <v>35.06675575102136</v>
       </c>
       <c r="C147">
-        <v>32.53722501177522</v>
+        <v>19.75644028647331</v>
       </c>
       <c r="D147">
-        <v>18.17151779189979</v>
+        <v>18.26445094758544</v>
       </c>
       <c r="E147">
-        <v>34.34590214062112</v>
+        <v>21.64227885466174</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>11.22332134960742</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>56.3307821524499</v>
+        <v>34.99251436495108</v>
       </c>
       <c r="C148">
-        <v>32.41833847348628</v>
+        <v>19.71165522619477</v>
       </c>
       <c r="D148">
-        <v>18.0644710848218</v>
+        <v>18.2106131606775</v>
       </c>
       <c r="E148">
-        <v>34.28176841776592</v>
+        <v>21.60385559545491</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>11.15117526351134</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>56.22265499517633</v>
+        <v>34.91831792502571</v>
       </c>
       <c r="C149">
-        <v>32.29954834945867</v>
+        <v>19.66691283538337</v>
       </c>
       <c r="D149">
-        <v>17.95749991424759</v>
+        <v>18.15679477390734</v>
       </c>
       <c r="E149">
-        <v>34.21767088538372</v>
+        <v>21.56547425356105</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>11.07908741475527</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>56.11454960312925</v>
+        <v>34.84416647100723</v>
       </c>
       <c r="C150">
-        <v>32.18085459162874</v>
+        <v>19.622213296496</v>
       </c>
       <c r="D150">
-        <v>17.85060426898858</v>
+        <v>18.10299589983074</v>
       </c>
       <c r="E150">
-        <v>34.15360961733078</v>
+        <v>21.52713486749859</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>11.00705793110854</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>56.0064659867914</v>
+        <v>34.77006003973543</v>
       </c>
       <c r="C151">
-        <v>32.06225715184415</v>
+        <v>19.57755677571548</v>
       </c>
       <c r="D151">
-        <v>17.74378413806563</v>
+        <v>18.04921664678362</v>
       </c>
       <c r="E151">
-        <v>34.08958468330158</v>
+        <v>21.4888374799914</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>10.93508693969181</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>55.8984041552808</v>
+        <v>34.69599866454699</v>
       </c>
       <c r="C152">
-        <v>31.94375598189077</v>
+        <v>19.53294343234746</v>
       </c>
       <c r="D152">
-        <v>17.63703951082088</v>
+        <v>17.99545712178037</v>
       </c>
       <c r="E152">
-        <v>34.02559614938639</v>
+        <v>21.45058212446947</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>10.86317456959796</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>55.79036411647704</v>
+        <v>34.62198237767052</v>
       </c>
       <c r="C153">
-        <v>31.82535103352806</v>
+        <v>19.48837341238686</v>
       </c>
       <c r="D153">
-        <v>17.53037037690053</v>
+        <v>17.94171742886079</v>
       </c>
       <c r="E153">
-        <v>33.96164407840109</v>
+        <v>21.41236882799685</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>10.79132094931891</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>55.68234587703393</v>
+        <v>34.54801120702383</v>
       </c>
       <c r="C154">
-        <v>31.70704225855403</v>
+        <v>19.44384685206182</v>
       </c>
       <c r="D154">
-        <v>17.4237767263614</v>
+        <v>17.88799767081425</v>
       </c>
       <c r="E154">
-        <v>33.89772853030124</v>
+        <v>21.37419761616586</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>10.71952620959948</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>55.57434944295284</v>
+        <v>34.47408518049515</v>
       </c>
       <c r="C155">
-        <v>31.58882960879971</v>
+        <v>19.39936387991716</v>
       </c>
       <c r="D155">
-        <v>17.31725854967738</v>
+        <v>17.83429794854451</v>
       </c>
       <c r="E155">
-        <v>33.83384956246491</v>
+        <v>21.33606850895582</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>10.64779048177085</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>55.46637481902901</v>
+        <v>34.40020432293527</v>
       </c>
       <c r="C156">
-        <v>31.47071303618572</v>
+        <v>19.35492461398644</v>
       </c>
       <c r="D156">
-        <v>17.21081583778898</v>
+        <v>17.78061836200492</v>
       </c>
       <c r="E156">
-        <v>33.77000722999617</v>
+        <v>21.29798152394005</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>10.57611389906005</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>55.35842200963683</v>
+        <v>34.32636865760978</v>
       </c>
       <c r="C157">
-        <v>31.35269249273249</v>
+        <v>19.31052916617319</v>
       </c>
       <c r="D157">
-        <v>17.10444858217716</v>
+        <v>17.72695900973387</v>
       </c>
       <c r="E157">
-        <v>33.70620158605482</v>
+        <v>21.2599366756294</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>10.50449659635756</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>55.25049101856285</v>
+        <v>34.2525782067239</v>
       </c>
       <c r="C158">
-        <v>31.23476793058321</v>
+        <v>19.26617764000643</v>
       </c>
       <c r="D158">
-        <v>16.99815677485742</v>
+        <v>17.67331998981785</v>
       </c>
       <c r="E158">
-        <v>33.64243268198893</v>
+        <v>21.22193397493365</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>10.43293871053799</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>55.14258184855558</v>
+        <v>34.17883299059616</v>
       </c>
       <c r="C159">
-        <v>31.11693930203215</v>
+        <v>19.22187013310724</v>
       </c>
       <c r="D159">
-        <v>16.89194040844003</v>
+        <v>17.61970139913701</v>
       </c>
       <c r="E159">
-        <v>33.57870056774562</v>
+        <v>21.18397343192769</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>10.36144038066622</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>55.03469450253942</v>
+        <v>34.10513302878221</v>
       </c>
       <c r="C160">
-        <v>30.99920655953035</v>
+        <v>19.17760673652456</v>
       </c>
       <c r="D160">
-        <v>16.78579947620602</v>
+        <v>17.56610333443498</v>
       </c>
       <c r="E160">
-        <v>33.51500529177632</v>
+        <v>21.14605505314346</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>10.29000174804822</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>54.9268289822598</v>
+        <v>34.03147833958452</v>
       </c>
       <c r="C161">
-        <v>30.88156965573722</v>
+        <v>19.13338753567997</v>
       </c>
       <c r="D161">
-        <v>16.67973397199759</v>
+        <v>17.51252589159833</v>
       </c>
       <c r="E161">
-        <v>33.45134690156484</v>
+        <v>21.10817884325447</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>10.21862295664711</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>54.81898528957743</v>
+        <v>33.95786894058068</v>
       </c>
       <c r="C162">
-        <v>30.7640285434664</v>
+        <v>19.08921261107162</v>
       </c>
       <c r="D162">
-        <v>16.57374389045208</v>
+        <v>17.45896916641384</v>
       </c>
       <c r="E162">
-        <v>33.38772544332027</v>
+        <v>21.070344806167</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>10.14730415276543</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>54.71116342576239</v>
+        <v>33.88430484841659</v>
       </c>
       <c r="C163">
-        <v>30.64658317579676</v>
+        <v>19.04508203741813</v>
       </c>
       <c r="D163">
-        <v>16.46782922685469</v>
+        <v>17.40543325425957</v>
       </c>
       <c r="E163">
-        <v>33.32414096257333</v>
+        <v>21.03255294212093</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>10.07604548576482</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>54.60336339173187</v>
+        <v>33.81078607912197</v>
       </c>
       <c r="C164">
-        <v>30.5292335060214</v>
+        <v>19.00099588597752</v>
       </c>
       <c r="D164">
-        <v>16.36198997723612</v>
+        <v>17.35191825042067</v>
       </c>
       <c r="E164">
-        <v>33.26059350382533</v>
+        <v>20.99480325142673</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>10.0048471076207</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>54.49558518821396</v>
+        <v>33.73731264817677</v>
       </c>
       <c r="C165">
-        <v>30.41197948762996</v>
+        <v>18.95695422247369</v>
       </c>
       <c r="D165">
-        <v>16.25622613843166</v>
+        <v>17.29842425008643</v>
       </c>
       <c r="E165">
-        <v>33.19708311103852</v>
+        <v>20.95709573238059</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>9.933709173505799</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>54.38782881561709</v>
+        <v>33.66388457024917</v>
       </c>
       <c r="C166">
-        <v>30.29482107443193</v>
+        <v>18.91295710959232</v>
       </c>
       <c r="D166">
-        <v>16.15053770802914</v>
+        <v>17.24495134846861</v>
       </c>
       <c r="E166">
-        <v>33.13360982741511</v>
+        <v>20.91943038161424</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>9.862631841674895</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>54.28009427420254</v>
+        <v>33.59050185985754</v>
       </c>
       <c r="C167">
-        <v>30.17775822042248</v>
+        <v>18.86900460585109</v>
       </c>
       <c r="D167">
-        <v>16.04492468447325</v>
+        <v>17.19149964085789</v>
       </c>
       <c r="E167">
-        <v>33.07017369571767</v>
+        <v>20.88180719509873</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>9.79161527365957</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>54.1723815639676</v>
+        <v>33.51716453070853</v>
       </c>
       <c r="C168">
-        <v>30.06079087990842</v>
+        <v>18.82509676617902</v>
       </c>
       <c r="D168">
-        <v>15.93938706705101</v>
+        <v>17.13806922267688</v>
       </c>
       <c r="E168">
-        <v>33.00677475815748</v>
+        <v>20.84422616741398</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>9.720659634434549</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>54.0646906848116</v>
+        <v>33.44387259638874</v>
       </c>
       <c r="C169">
-        <v>29.94391900746441</v>
+        <v>18.78123364257999</v>
       </c>
       <c r="D169">
-        <v>15.8339248559307</v>
+        <v>17.08466018957336</v>
       </c>
       <c r="E169">
-        <v>32.94341305661366</v>
+        <v>20.80668729231855</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>9.649765092519319</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>53.95702163646374</v>
+        <v>33.37062607000368</v>
       </c>
       <c r="C170">
-        <v>29.82714255792943</v>
+        <v>18.73741528369441</v>
       </c>
       <c r="D170">
-        <v>15.7285380521906</v>
+        <v>17.03127263739474</v>
       </c>
       <c r="E170">
-        <v>32.88008863254888</v>
+        <v>20.76919056274454</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>9.578931820117363</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>53.84937441846662</v>
+        <v>33.29742496436873</v>
       </c>
       <c r="C171">
-        <v>29.71046148645654</v>
+        <v>18.69364173572097</v>
       </c>
       <c r="D171">
-        <v>15.62322665784775</v>
+        <v>16.97790666233648</v>
       </c>
       <c r="E171">
-        <v>32.81680152719523</v>
+        <v>20.73173597057554</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>9.508159993242586</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>53.74174903033325</v>
+        <v>33.22426929207496</v>
       </c>
       <c r="C172">
-        <v>29.59387574848627</v>
+        <v>18.64991304190105</v>
       </c>
       <c r="D172">
-        <v>15.51799067588299</v>
+        <v>16.92456236086552</v>
       </c>
       <c r="E172">
-        <v>32.75355178146502</v>
+        <v>20.69432350733623</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>9.437449791864955</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>53.63414547135867</v>
+        <v>33.15115906545291</v>
       </c>
       <c r="C173">
-        <v>29.47738529977321</v>
+        <v>18.6062292433483</v>
       </c>
       <c r="D173">
-        <v>15.41283011026949</v>
+        <v>16.87123982987648</v>
       </c>
       <c r="E173">
-        <v>32.69033943611504</v>
+        <v>20.65695316364712</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>9.366801400008326</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>53.52656374082181</v>
+        <v>33.07809429670179</v>
       </c>
       <c r="C174">
-        <v>29.36099009638683</v>
+        <v>18.56259037878032</v>
       </c>
       <c r="D174">
-        <v>15.30774496600184</v>
+        <v>16.81793916662455</v>
       </c>
       <c r="E174">
-        <v>32.62716453167022</v>
+        <v>20.61962492946497</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>9.29621500591654</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>53.41900383787344</v>
+        <v>33.00507499779179</v>
       </c>
       <c r="C175">
-        <v>29.24469009471402</v>
+        <v>18.51899648472912</v>
       </c>
       <c r="D175">
-        <v>15.20273524912477</v>
+        <v>16.76466046884632</v>
       </c>
       <c r="E175">
-        <v>32.56402710855085</v>
+        <v>20.58233879448222</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>9.225690802169179</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>53.3114657615891</v>
+        <v>32.93210118064816</v>
       </c>
       <c r="C176">
-        <v>29.12848525147979</v>
+        <v>18.47544759597776</v>
       </c>
       <c r="D176">
-        <v>15.09780096676302</v>
+        <v>16.71140383471861</v>
       </c>
       <c r="E176">
-        <v>32.50092720702567</v>
+        <v>20.54509474743141</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>9.155228985814485</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>53.20394951098659</v>
+        <v>32.85917285702786</v>
       </c>
       <c r="C177">
-        <v>29.01237552373285</v>
+        <v>18.43194374515834</v>
       </c>
       <c r="D177">
-        <v>14.99294212714508</v>
+        <v>16.65816936295197</v>
       </c>
       <c r="E177">
-        <v>32.43786486728971</v>
+        <v>20.50789277691866</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>9.084829758518467</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>53.0964550850131</v>
+        <v>32.78629003862031</v>
       </c>
       <c r="C178">
-        <v>28.89636086887065</v>
+        <v>18.38848496350003</v>
       </c>
       <c r="D178">
-        <v>14.88815873965106</v>
+        <v>16.60495715275403</v>
       </c>
       <c r="E178">
-        <v>32.3748401294385</v>
+        <v>20.4707328709997</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>9.014493326720192</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>52.9889824825787</v>
+        <v>32.71345273707097</v>
       </c>
       <c r="C179">
-        <v>28.78044124463743</v>
+        <v>18.34507128037734</v>
       </c>
       <c r="D179">
-        <v>14.78345081482181</v>
+        <v>16.55176730391793</v>
       </c>
       <c r="E179">
-        <v>32.31185303358545</v>
+        <v>20.43361501722128</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>8.944219901732653</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>52.88153170252845</v>
+        <v>32.64066096392513</v>
       </c>
       <c r="C180">
-        <v>28.6646166091233</v>
+        <v>18.30170272382981</v>
       </c>
       <c r="D180">
-        <v>14.67881836440541</v>
+        <v>16.49859991677969</v>
       </c>
       <c r="E180">
-        <v>32.2489036197753</v>
+        <v>20.39653920290525</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>8.874009699977762</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>52.77410274368905</v>
+        <v>32.56791473075157</v>
       </c>
       <c r="C181">
-        <v>28.54888692078486</v>
+        <v>18.2583793203864</v>
       </c>
       <c r="D181">
-        <v>14.57426140139957</v>
+        <v>16.44545509230245</v>
       </c>
       <c r="E181">
-        <v>32.18599192800061</v>
+        <v>20.35950541494861</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>8.803862943025869</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>52.66669560484208</v>
+        <v>32.4952140490557</v>
       </c>
       <c r="C182">
-        <v>28.43325213843859</v>
+        <v>18.21510109522424</v>
       </c>
       <c r="D182">
-        <v>14.46977994005383</v>
+        <v>16.39233293203857</v>
       </c>
       <c r="E182">
-        <v>32.12311799840915</v>
+        <v>20.32251363996913</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>8.733779857890152</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>52.55931028473273</v>
+        <v>32.42255893037548</v>
       </c>
       <c r="C183">
-        <v>28.31771222127287</v>
+        <v>18.17186807259554</v>
       </c>
       <c r="D183">
-        <v>14.36537399595354</v>
+        <v>16.33923353819828</v>
       </c>
       <c r="E183">
-        <v>32.06028187106114</v>
+        <v>20.2855638643365</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>8.663760677049378</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>52.4519467820957</v>
+        <v>32.34994938624292</v>
       </c>
       <c r="C184">
-        <v>28.20226712885272</v>
+        <v>18.12868027569611</v>
       </c>
       <c r="D184">
-        <v>14.26104358600497</v>
+        <v>16.2861570136285</v>
       </c>
       <c r="E184">
-        <v>31.99748358600618</v>
+        <v>20.248656074076</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>8.593805638730277</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>52.34460509562172</v>
+        <v>32.27738542822079</v>
       </c>
       <c r="C185">
-        <v>28.08691682112521</v>
+        <v>18.08553772574897</v>
       </c>
       <c r="D185">
-        <v>14.15678872850595</v>
+        <v>16.23310346185866</v>
       </c>
       <c r="E185">
-        <v>31.93472318350682</v>
+        <v>20.21179025508087</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>8.523914987017191</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>52.23728522399924</v>
+        <v>32.20486706791321</v>
       </c>
       <c r="C186">
-        <v>27.97166125842574</v>
+        <v>18.04244044421439</v>
       </c>
       <c r="D186">
-        <v>14.05260944318573</v>
+        <v>16.18007298709795</v>
       </c>
       <c r="E186">
-        <v>31.8720007037549</v>
+        <v>20.17496639297624</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>8.454088972035525</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>52.12998716588994</v>
+        <v>32.1323943169576</v>
       </c>
       <c r="C187">
-        <v>27.85650040148376</v>
+        <v>17.99938845149112</v>
       </c>
       <c r="D187">
-        <v>13.94850575121107</v>
+        <v>16.12706569426334</v>
       </c>
       <c r="E187">
-        <v>31.80931618699043</v>
+        <v>20.13818447315649</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>8.384327850186377</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>52.02271091994469</v>
+        <v>32.0599671870692</v>
       </c>
       <c r="C188">
-        <v>27.74143421142884</v>
+        <v>17.95638176667041</v>
       </c>
       <c r="D188">
-        <v>13.84447767528543</v>
+        <v>16.07408168898742</v>
       </c>
       <c r="E188">
-        <v>31.74666967363041</v>
+        <v>20.10144448091581</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>8.314631884233401</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>51.91545648480454</v>
+        <v>31.98758569000167</v>
       </c>
       <c r="C189">
-        <v>27.62646264979641</v>
+        <v>17.91342040773266</v>
       </c>
       <c r="D189">
-        <v>13.74052523962423</v>
+        <v>16.02112107763607</v>
       </c>
       <c r="E189">
-        <v>31.68406120409652</v>
+        <v>20.0647464012817</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>8.245001343653419</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>51.8082238590992</v>
+        <v>31.91524983760645</v>
       </c>
       <c r="C190">
-        <v>27.51158567853314</v>
+        <v>17.87050439302805</v>
       </c>
       <c r="D190">
-        <v>13.63664847004871</v>
+        <v>15.96818396732234</v>
       </c>
       <c r="E190">
-        <v>31.62149081890378</v>
+        <v>20.02809021919132</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>8.175436504642581</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>51.70101304145666</v>
+        <v>31.84295964179995</v>
       </c>
       <c r="C191">
-        <v>27.39680326000376</v>
+        <v>17.82763374000585</v>
       </c>
       <c r="D191">
-        <v>13.53284739402364</v>
+        <v>15.91527046591691</v>
       </c>
       <c r="E191">
-        <v>31.5589585587011</v>
+        <v>19.99147591942984</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>8.105937650561392</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>51.59382403049491</v>
+        <v>31.77071511458973</v>
       </c>
       <c r="C192">
-        <v>27.28211535699652</v>
+        <v>17.78480846426721</v>
       </c>
       <c r="D192">
-        <v>13.42912204066839</v>
+        <v>15.86238068206318</v>
       </c>
       <c r="E192">
-        <v>31.49646446421237</v>
+        <v>19.95490348661307</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>8.036505071906259</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>51.48665682483558</v>
+        <v>31.69851626808162</v>
       </c>
       <c r="C193">
-        <v>27.16752193272902</v>
+        <v>17.74202858216491</v>
       </c>
       <c r="D193">
-        <v>13.32547244087749</v>
+        <v>15.80951472518612</v>
       </c>
       <c r="E193">
-        <v>31.43400857628013</v>
+        <v>19.91837290528205</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>7.967139066743504</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>51.37951142309596</v>
+        <v>31.6263631144736</v>
       </c>
       <c r="C194">
-        <v>27.05302295085457</v>
+        <v>17.69929410922565</v>
       </c>
       <c r="D194">
-        <v>13.22189862728328</v>
+        <v>15.75667270552099</v>
       </c>
       <c r="E194">
-        <v>31.37159093587696</v>
+        <v>19.88188415984223</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>7.897839940824354</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>51.27238782389363</v>
+        <v>31.55425566607966</v>
       </c>
       <c r="C195">
-        <v>26.93861837546944</v>
+        <v>17.6566050602937</v>
       </c>
       <c r="D195">
-        <v>13.11840063437835</v>
+        <v>15.70385473410544</v>
       </c>
       <c r="E195">
-        <v>31.30921158407422</v>
+        <v>19.8454372346022</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>7.828608007846054</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>51.16528602585112</v>
+        <v>31.4821939353163</v>
       </c>
       <c r="C196">
-        <v>26.82430817111645</v>
+        <v>17.61396144950699</v>
       </c>
       <c r="D196">
-        <v>13.01497849854861</v>
+        <v>15.65106092278571</v>
       </c>
       <c r="E196">
-        <v>31.24687056208474</v>
+        <v>19.80903211379625</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>7.759443589782572</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>51.05820602758961</v>
+        <v>31.41017793472589</v>
       </c>
       <c r="C197">
-        <v>26.71009230279485</v>
+        <v>17.57136329108281</v>
       </c>
       <c r="D197">
-        <v>12.91163225809642</v>
+        <v>15.59829138427386</v>
       </c>
       <c r="E197">
-        <v>31.18456791126437</v>
+        <v>19.77266878154366</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>7.690347017016281</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>50.95114782773886</v>
+        <v>31.33820767696702</v>
       </c>
       <c r="C198">
-        <v>26.59597073596411</v>
+        <v>17.52881059871675</v>
       </c>
       <c r="D198">
-        <v>12.80836195337938</v>
+        <v>15.5455462321166</v>
       </c>
       <c r="E198">
-        <v>31.12230367306823</v>
+        <v>19.73634722192047</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>7.621318628929336</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>50.84411142493101</v>
+        <v>31.26628317482719</v>
       </c>
       <c r="C199">
-        <v>26.48194343655083</v>
+        <v>17.48630338549242</v>
       </c>
       <c r="D199">
-        <v>12.70516762676518</v>
+        <v>15.49282558068577</v>
       </c>
       <c r="E199">
-        <v>31.06007788911447</v>
+        <v>19.70006741892098</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>7.552358773573286</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>50.73709681780624</v>
+        <v>31.19440444122641</v>
       </c>
       <c r="C200">
-        <v>26.36801037095797</v>
+        <v>17.4438416644381</v>
       </c>
       <c r="D200">
-        <v>12.60204932278673</v>
+        <v>15.44012954526706</v>
       </c>
       <c r="E200">
-        <v>30.99789060116897</v>
+        <v>19.66382935646326</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>7.483467808229718</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>50.63010400501186</v>
+        <v>31.12257148921506</v>
       </c>
       <c r="C201">
-        <v>26.25417150606697</v>
+        <v>17.40142544829173</v>
       </c>
       <c r="D201">
-        <v>12.49900708816613</v>
+        <v>15.38745824201359</v>
       </c>
       <c r="E201">
-        <v>30.93574185110849</v>
+        <v>19.6276330184337</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>7.414646100709628</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>50.52313298520279</v>
+        <v>31.05078433198868</v>
       </c>
       <c r="C202">
-        <v>26.14042680924933</v>
+        <v>17.35905474946061</v>
       </c>
       <c r="D202">
-        <v>12.39604097185911</v>
+        <v>15.33481178793848</v>
       </c>
       <c r="E202">
-        <v>30.87363168098131</v>
+        <v>19.59147838864245</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>7.34589402783297</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>50.41618375704443</v>
+        <v>30.97904298287865</v>
       </c>
       <c r="C203">
-        <v>26.0267762483705</v>
+        <v>17.31672957996797</v>
       </c>
       <c r="D203">
-        <v>12.29315102521254</v>
+        <v>15.2821903009905</v>
       </c>
       <c r="E203">
-        <v>30.81156013298371</v>
+        <v>19.5553654508649</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>7.27721197651671</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>50.3092563192103</v>
+        <v>30.90734745536821</v>
       </c>
       <c r="C204">
-        <v>25.91321979179711</v>
+        <v>17.27444995190195</v>
       </c>
       <c r="D204">
-        <v>12.19033730191056</v>
+        <v>15.22959390002167</v>
       </c>
       <c r="E204">
-        <v>30.74952724944631</v>
+        <v>19.51929418883669</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>7.208600344919808</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>50.2023506703863</v>
+        <v>30.83569776308651</v>
       </c>
       <c r="C205">
-        <v>25.79975740840746</v>
+        <v>17.23221587711111</v>
       </c>
       <c r="D205">
-        <v>12.08759985817357</v>
+        <v>15.17702270479559</v>
       </c>
       <c r="E205">
-        <v>30.68753307286842</v>
+        <v>19.48326458624067</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>7.140059542716882</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>50.09546680926835</v>
+        <v>30.76409391981649</v>
       </c>
       <c r="C206">
-        <v>25.68638906759305</v>
+        <v>17.19002736699066</v>
       </c>
       <c r="D206">
-        <v>11.98493875276488</v>
+        <v>15.1244768360214</v>
       </c>
       <c r="E206">
-        <v>30.62557764590265</v>
+        <v>19.44727662674112</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>7.071589989396941</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>49.98860473456446</v>
+        <v>30.69253593949647</v>
       </c>
       <c r="C207">
-        <v>25.57311473927198</v>
+        <v>17.14788443300704</v>
       </c>
       <c r="D207">
-        <v>11.88235404706904</v>
+        <v>15.0719564153499</v>
       </c>
       <c r="E207">
-        <v>30.56366101135352</v>
+        <v>19.41133029395754</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>7.003192116520555</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>49.88176444499553</v>
+        <v>30.62102383622062</v>
       </c>
       <c r="C208">
-        <v>25.45993439389288</v>
+        <v>17.10578708653485</v>
       </c>
       <c r="D208">
-        <v>11.77984580526717</v>
+        <v>15.01946156538897</v>
       </c>
       <c r="E208">
-        <v>30.50178321219336</v>
+        <v>19.37542557148285</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>6.934866369840789</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>49.77494593929435</v>
+        <v>30.54955762425087</v>
       </c>
       <c r="C209">
-        <v>25.34684800244239</v>
+        <v>17.06373533874524</v>
       </c>
       <c r="D209">
-        <v>11.67741409427552</v>
+        <v>14.96699240971327</v>
       </c>
       <c r="E209">
-        <v>30.43994429155595</v>
+        <v>19.3395624429022</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>6.866613205181177</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>49.66814921620829</v>
+        <v>30.47813731801505</v>
       </c>
       <c r="C210">
-        <v>25.23385553645768</v>
+        <v>17.02172920049154</v>
       </c>
       <c r="D210">
-        <v>11.57505898400135</v>
+        <v>14.91454907287584</v>
       </c>
       <c r="E210">
-        <v>30.3781442927326</v>
+        <v>19.30374089178345</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>6.79843309187588</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>49.56137427449688</v>
+        <v>30.40676293209108</v>
       </c>
       <c r="C211">
-        <v>25.1209569680269</v>
+        <v>16.97976868282673</v>
       </c>
       <c r="D211">
-        <v>11.47278054732032</v>
+        <v>14.86213168042008</v>
       </c>
       <c r="E211">
-        <v>30.31638325918911</v>
+        <v>19.2679609016392</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>6.730326513854865</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>49.45462111293567</v>
+        <v>30.33543448124599</v>
       </c>
       <c r="C212">
-        <v>25.00815226980463</v>
+        <v>16.93785379663656</v>
       </c>
       <c r="D212">
-        <v>11.3705788602079</v>
+        <v>14.80974035888998</v>
       </c>
       <c r="E212">
-        <v>30.25466123455732</v>
+        <v>19.23222245598396</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>6.662293968595413</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>49.34788973031522</v>
+        <v>30.26415198041844</v>
       </c>
       <c r="C213">
-        <v>24.89544141501615</v>
+        <v>16.89598455261355</v>
       </c>
       <c r="D213">
-        <v>11.26845400192899</v>
+        <v>14.75737523584099</v>
       </c>
       <c r="E213">
-        <v>30.19297826263026</v>
+        <v>19.19652553835357</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>6.594335967042809</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>49.24118012544051</v>
+        <v>30.1929154447148</v>
       </c>
       <c r="C214">
-        <v>24.78282437746521</v>
+        <v>16.85416096145644</v>
       </c>
       <c r="D214">
-        <v>11.16640605497118</v>
+        <v>14.70503643985161</v>
       </c>
       <c r="E214">
-        <v>30.13133438738108</v>
+        <v>19.16087013226958</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>6.526453035675096</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>49.13449229713046</v>
+        <v>30.12172488940731</v>
       </c>
       <c r="C215">
-        <v>24.67030113154832</v>
+        <v>16.81238303385862</v>
       </c>
       <c r="D215">
-        <v>11.0644351053763</v>
+        <v>14.65272410053428</v>
       </c>
       <c r="E215">
-        <v>30.06972965295232</v>
+        <v>19.12525622118154</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>6.458645717946958</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>49.02782624422393</v>
+        <v>30.05058032997042</v>
       </c>
       <c r="C216">
-        <v>24.55787165225481</v>
+        <v>16.77065078044026</v>
       </c>
       <c r="D216">
-        <v>10.96254124266927</v>
+        <v>14.60043834854661</v>
       </c>
       <c r="E216">
-        <v>30.00816410365397</v>
+        <v>19.08968378856799</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>6.390914571108905</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>48.9211819655758</v>
+        <v>29.9794817820548</v>
       </c>
       <c r="C217">
-        <v>24.44553591518728</v>
+        <v>16.72896421170861</v>
       </c>
       <c r="D217">
-        <v>10.86072456012075</v>
+        <v>14.54817931560334</v>
       </c>
       <c r="E217">
-        <v>29.94663778397755</v>
+        <v>19.05415281793823</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>6.323260169424062</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>48.81455946005298</v>
+        <v>29.90842926147571</v>
       </c>
       <c r="C218">
-        <v>24.33329389656149</v>
+        <v>16.68732333826114</v>
       </c>
       <c r="D218">
-        <v>10.75898515494847</v>
+        <v>14.4959471344884</v>
       </c>
       <c r="E218">
-        <v>29.88515073858824</v>
+        <v>19.01866329278679</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>6.255683106717607</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>48.7079587265434</v>
+        <v>29.83742278425205</v>
       </c>
       <c r="C219">
-        <v>24.22114557321238</v>
+        <v>16.64572817065644</v>
       </c>
       <c r="D219">
-        <v>10.65732312805735</v>
+        <v>14.44374193906265</v>
       </c>
       <c r="E219">
-        <v>29.82370301232562</v>
+        <v>18.98321519655004</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>6.188183992561857</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>48.60137976395326</v>
+        <v>29.76646236658897</v>
       </c>
       <c r="C220">
-        <v>24.10909092260671</v>
+        <v>16.60417871937707</v>
       </c>
       <c r="D220">
-        <v>10.55573858440308</v>
+        <v>14.39156386427937</v>
       </c>
       <c r="E220">
-        <v>29.76229465021104</v>
+        <v>18.94780851270038</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>6.120763454941736</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>48.49482257120535</v>
+        <v>29.69554802487805</v>
       </c>
       <c r="C221">
-        <v>23.99712992288627</v>
+        <v>16.56267499492871</v>
       </c>
       <c r="D221">
-        <v>10.45423163368794</v>
+        <v>14.33941304619989</v>
       </c>
       <c r="E221">
-        <v>29.70092569744421</v>
+        <v>18.91244322473016</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>6.053422142371249</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>48.38828714723692</v>
+        <v>29.62467977569791</v>
       </c>
       <c r="C222">
-        <v>23.88526255281098</v>
+        <v>16.52121700787263</v>
       </c>
       <c r="D222">
-        <v>10.35280238981435</v>
+        <v>14.28728962199328</v>
       </c>
       <c r="E222">
-        <v>29.63959619940425</v>
+        <v>18.87711931612381</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>5.98616072443119</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>48.28177349100842</v>
+        <v>29.55385763582915</v>
       </c>
       <c r="C223">
-        <v>23.77348879180804</v>
+        <v>16.47980476875761</v>
       </c>
       <c r="D223">
-        <v>10.25145097072105</v>
+        <v>14.23519372995718</v>
       </c>
       <c r="E223">
-        <v>29.57830620165408</v>
+        <v>18.84183677034055</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>5.918979888865949</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>48.17528160149745</v>
+        <v>29.48308162224591</v>
       </c>
       <c r="C224">
-        <v>23.66180861998097</v>
+        <v>16.43843828804532</v>
       </c>
       <c r="D224">
-        <v>10.1501774990785</v>
+        <v>14.18312550953689</v>
       </c>
       <c r="E224">
-        <v>29.51705574993872</v>
+        <v>18.80659557086531</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>5.851880345688167</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>48.06881147769928</v>
+        <v>29.41235175211764</v>
       </c>
       <c r="C225">
-        <v>23.55022201816365</v>
+        <v>16.39711757634332</v>
       </c>
       <c r="D225">
-        <v>10.04898210397591</v>
+        <v>14.13108510131874</v>
       </c>
       <c r="E225">
-        <v>29.45584489018612</v>
+        <v>18.77139570119378</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>5.784862831329396</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>47.96236311862861</v>
+        <v>29.34166804281614</v>
       </c>
       <c r="C226">
-        <v>23.43872896782332</v>
+        <v>16.35584264424988</v>
       </c>
       <c r="D226">
-        <v>9.947864918049255</v>
+        <v>14.07907264705435</v>
       </c>
       <c r="E226">
-        <v>29.39467366851116</v>
+        <v>18.73623714482436</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>5.717928100908956</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>47.85593652332042</v>
+        <v>29.27103051191535</v>
       </c>
       <c r="C227">
-        <v>23.32732945114902</v>
+        <v>16.31461350234614</v>
       </c>
       <c r="D227">
-        <v>9.84682607926946</v>
+        <v>14.02708828968154</v>
       </c>
       <c r="E227">
-        <v>29.33354213121377</v>
+        <v>18.70111988525167</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>5.651076934806399</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>47.74953169082901</v>
+        <v>29.20043917719223</v>
       </c>
       <c r="C228">
-        <v>23.21602345106095</v>
+        <v>16.27343016124315</v>
       </c>
       <c r="D228">
-        <v>9.745865731209127</v>
+        <v>13.97513217331611</v>
       </c>
       <c r="E228">
-        <v>29.27245032478003</v>
+        <v>18.66604390598924</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>5.584310141427166</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>47.64314862022798</v>
+        <v>29.12989405662765</v>
       </c>
       <c r="C229">
-        <v>23.1048109512355</v>
+        <v>16.23229263163198</v>
       </c>
       <c r="D229">
-        <v>9.644984024949238</v>
+        <v>13.9232044432768</v>
       </c>
       <c r="E229">
-        <v>29.21139829588578</v>
+        <v>18.63100919056133</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>5.517628554705542</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>47.53678731061195</v>
+        <v>29.05939516841326</v>
       </c>
       <c r="C230">
-        <v>22.99369193603906</v>
+        <v>16.19120092422289</v>
       </c>
       <c r="D230">
-        <v>9.544181115181065</v>
+        <v>13.87130524610458</v>
       </c>
       <c r="E230">
-        <v>29.15038609139485</v>
+        <v>18.59601572250235</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>5.451033033786078</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>47.43044776109581</v>
+        <v>28.98894253094961</v>
       </c>
       <c r="C231">
-        <v>22.8826663906048</v>
+        <v>16.15015504970762</v>
       </c>
       <c r="D231">
-        <v>9.443457163359836</v>
+        <v>13.8194347295617</v>
       </c>
       <c r="E231">
-        <v>29.08941375836049</v>
+        <v>18.56106348534473</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>5.384524467926209</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>47.32412997081497</v>
+        <v>28.91853616284516</v>
       </c>
       <c r="C232">
-        <v>22.7717343008557</v>
+        <v>16.10915501888531</v>
       </c>
       <c r="D232">
-        <v>9.342812337780948</v>
+        <v>13.76759304264871</v>
       </c>
       <c r="E232">
-        <v>29.028481344028</v>
+        <v>18.52615246264574</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>5.318103780224749</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>47.21783393892569</v>
+        <v>28.84817608292409</v>
       </c>
       <c r="C233">
-        <v>22.66089565349086</v>
+        <v>16.06820084258086</v>
       </c>
       <c r="D233">
-        <v>9.242246814466919</v>
+        <v>13.71578033562707</v>
       </c>
       <c r="E233">
-        <v>28.9675888958338</v>
+        <v>18.49128263797498</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>5.251771919013795</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>47.11155966460595</v>
+        <v>28.77786231022595</v>
       </c>
       <c r="C234">
-        <v>22.5501504359719</v>
+        <v>16.02729253164761</v>
       </c>
       <c r="D234">
-        <v>9.141760774519307</v>
+        <v>13.66399676002353</v>
       </c>
       <c r="E234">
-        <v>28.90673646140687</v>
+        <v>18.45645399491532</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>5.185529866129754</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>47.00530714705508</v>
+        <v>28.70759486400612</v>
       </c>
       <c r="C235">
-        <v>22.43949863657088</v>
+        <v>15.98643009697892</v>
       </c>
       <c r="D235">
-        <v>9.041354406741691</v>
+        <v>13.61224246863999</v>
       </c>
       <c r="E235">
-        <v>28.84592408857049</v>
+        <v>18.4216665170444</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>5.119378643397472</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>46.89907638549329</v>
+        <v>28.63737376373643</v>
       </c>
       <c r="C236">
-        <v>22.32894024441496</v>
+        <v>15.94561354954416</v>
       </c>
       <c r="D236">
-        <v>8.941027908554119</v>
+        <v>13.56051761557922</v>
       </c>
       <c r="E236">
-        <v>28.78515182534208</v>
+        <v>18.38692018797303</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>5.053319302441246</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>46.79286737916355</v>
+        <v>28.56719902911184</v>
       </c>
       <c r="C237">
-        <v>22.21847524942894</v>
+        <v>15.90484290035596</v>
       </c>
       <c r="D237">
-        <v>8.84078148523321</v>
+        <v>13.50882235625496</v>
       </c>
       <c r="E237">
-        <v>28.72441971993456</v>
+        <v>18.35221499132345</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>4.987352931415362</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>46.68668012733088</v>
+        <v>28.49707068004856</v>
       </c>
       <c r="C238">
-        <v>22.10810364237572</v>
+        <v>15.86411816043869</v>
       </c>
       <c r="D238">
-        <v>8.740615348906054</v>
+        <v>13.45715684739423</v>
       </c>
       <c r="E238">
-        <v>28.6637278207576</v>
+        <v>18.31755091073256</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>4.921480660333994</v>
       </c>
     </row>
   </sheetData>
